--- a/500all/speech_level/speeches_CHRG-114hhrg97568.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97568.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="154">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,60 +52,36 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Lipinski</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lipinski. Thank you, Chairwoman Comstock. I want to thank you, Chairman Loudermilk, Chairman Smith, for holding this hearing on the recent OPM data breach. I want to thank all of our witnesses for being here this afternoon.    Unfortunately, major cyber attacks are happening more frequently. Today, we're going to talk about the significant breaches at the Office of Personnel Management. I have not received notification, but I believe I may have been a victim of this. But we all know that--I don't want to take away the significance of it but it's important to note there have been increasing number of cyber attacks in both the private and public sector where I know I've definitely been a victim of some of these attacks.    Several years ago, I began working on cybersecurity legislation, the Cybersecurity Enhancement Act, with my colleague Mr. McCall. Our legislation dealt with cybersecurity standards, education, and workforce development. When we started, I said that I had no doubt that threats from individual hackers, criminal syndicates, and even other governments would grow and evolve along with our increased use of the internet. Unfortunately, I was right.    In February, Anthem, one of the Nation's largest health insurance companies, announced it suffered a cyber breach that compromised the records of 80 million current and former customers. And just last year, there were high-profile breaches at J.P. Morgan Chase, eBay, Target, and many others affecting millions of people.    Although I was happy that my bill with Mr. McCall was enacted at the end of last Congress, there is much, much more to do in the area of cybersecurity. Cybercrime and cyber espionage continue to threaten our national security, our critical infrastructure, businesses of all sizes, and every single American. This latest data breach at OPM is just another example of that.    In the OPM breach, millions of federal employees' personal information has been compromised, leading to significant concerns about how the stolen information will be used. Additionally, since OPM conducts more than 90 percent of all security clearance background investigations, this breach is an example of how cyber attacks threaten our national security. We must do better.    It'll take a collective effort in both the public and private sector to improve cybersecurity, and I cannot emphasize enough the importance of research into the social and behavioral aspects in this area. Our IT infrastructure is built, operated, and maintained by humans from the average worker at her desktop to Chief Information Officer of a major company or agency. Most cyber attacks are successful because of human error such as unwittingly opening a malicious email or allowing one's credentials to be compromised. Understanding the human element is necessary to combat threats and reduce risks.    To set governmentwide guidelines protecting federal information security systems, Congress passed--if I can turn my page--an example of human error here. Congress passed the Federal Information Security Modernization Act, or FISMA. FISMA, which was updated at the end of last Congress, requires federal agencies to develop, document, and implement an agencywide information security program.    Along with being responsible for their own information security system, the National Institute of Standards and Technology is tasked with developing standards and guidelines for all civilian federal information systems. Since NIST plays a critical role in protecting our nation's information security systems, it's important that they be part of this conversation. I'm happy that Dr. Romine is here today to tell us more about how NIST develops FISMA standards and how they work with other federal agencies.    FISMA also requires annual reviews of individual agencies' information security programs, as well as reviews of information security policies in the implementation of FISMA requirements governmentwide. I hope to hear from our witnesses about the steps necessary to ensure that OPM meets FISMA requirements, as well as how other agencies are doing in this space.    More information security systems, both in the public and private sector, will surely be subject to cyber attacks in the future, and while it's impossible to completely protect the connected information security system, we must do all we can to protect the personal information of millions of Americans and conduct the oversight to ensure such steps are taken. This hearing is the beginning of a conversation on how we can do that, and we must make sure that we follow through with action.    I look forward to our discussion this afternoon. Thank you, and I yield back the balance of my time.</t>
   </si>
   <si>
     <t>412624</t>
   </si>
   <si>
-    <t>Barry Loudermilk</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Loudermilk. Thank you, Chairwoman Comstock, for holding this very important hearing on an issue that hits close to home for you, as many--as others in this country.    I'd like to thank our witnesses for being here today in order to help us understand what seems to be an epidemic of cyber attacks. I look forward to discussing what needs need to be done to prevent similar attacks from occurring in the future.    Now, it isn't a priority, nor it should be a priority for us just to address this because it affects some of us that are up here, but it's because it affects the American people. And unfortunately, this Administration has failed to provide Americans with any level of confidence that it will adequately protect their personal information when trusted with it.    As we have witnessed over the past few months, there has been a concerning pattern of security breaches involving government computer systems. This includes the recent, massive data breach of the Office of Personnel Management disclosing personal and official information that could potentially harm our national security. For an Administration that touts that it has ``prioritized the cybersecurity of federal departments and agencies,'' we have instead witnessed a government that is unable to properly secure its computer systems and protect sensitive information.    The situation at OPM is exactly why the subcommittee that I chair is looking into the collection of America's--Americans' personal data through the HealthCare.gov website. In that situation, it appears that Social Security numbers, dates of birth, names, mailing addresses, phone numbers, financial accounts information, military status, employment status, passport numbers, and taxpayer IDs are being retained. This information is being stored in a data warehouse that is intended to provide reporting and performance metrics related to the Federally Facilitated Marketplace and other HealthCare.gov-related systems.    In the situation of the data warehouse, the Administration never appeared to be forthright about the use and storage of personally identifiable information on HealthCare.gov. The Administration has yet to explain the reason for indefinitely storing user information, particularly of the users of the website who input their data to log in but do not end up enrolling.    While this Administration has claimed that cybersecurity is a priority, their actions on this and other issues regarding protecting the American people suggests the priorities are only lip service. From ending the Secure Cities program to storing critical information on American citizens without their approval or knowledge, this Administration is proving through their actions that protecting the American people is far from being on their list of priorities.    If that data warehouse is being protected in the same way that OPM was protecting personal information, action needs to be taken now to avoid putting the American people at significant personal risk. With many Americans being forced into the government healthcare exchange, a breach of this system could end up having millions affected, just like the OPM data hack.    The Government Accountability Office has included the cybersecurity of federal information systems on its list of high risk areas since 1997, so this isn't something new. Why, then, are we sitting here almost 20 years later, wondering why our federal information systems are not being adequately secured?    In the most recent GAO High Risk Series report, it says that ``Inspectors General at 22 of the 24 agencies cited information security as a major management challenge for their agency. For fiscal year 2014, most of the agencies had information security weaknesses in the majority of five key control categories.'' As Chairman of this subcommittee--this Committee's Oversight Subcommittee, I want to find the truth behind this reckless behavior that is threatening the safety and security of the American people. These actions--or rather, lack of actions--put the future of our nation at great risk and must stop.    I look forward to today's hearing, which I anticipate will inform us more about the recent OPM breach and the current state of our federal information systems. We owe it to the American people to ensure that their personally identifiable information is safe and protected from cybercriminals.    And with that, Madam Chair, I yield back.</t>
   </si>
   <si>
     <t>412657</t>
   </si>
   <si>
-    <t>Donald S. Beyer, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Beyer. Thank you, Madam Chair. And thank you, Chairs Comstock and Loudermilk, for holding this hearing today, incredibly timely and--because, you know, earlier today obviously New York Stock Exchange, United Airlines, the Wall Street Journal all suffering from computer glitches that has disrupted their computer networks. And whether this turns out to be intentional or whether--or not, it certainly highlights the potential vulnerabilities of our digital dependence. And today's hearing obviously is about Office of Personnel Management.    Deterring, detecting, and defending against the multitude of online threats that constantly lurk in the cyberspace domain is a critical issue for federal agencies and the federal government and the private sector alike. Last year alone, federal agencies reported nearly 70,000 individual computer security incidents to the U.S. Computer Emergency Readiness Team, or CERT. During the same time period, October 1, 2013, to September 30, 2014, nonfederal entities reported more than 570,000 incidents and many other incidents are potentially not identified or even not reported at all. Cyber threats are constant, they're evolving, they're very sophisticated, and many pose serious distress to companies, agencies, and individuals.    The two recent data breaches at OPM are particularly important to me and to my constituents. Representing a Congressional District just outside the Nation's capital, many of my constituents are federal employees who may have had their personal data compromised as a result of these intrusions. One of those attacks is believed to have compromised the personal information of more than four million people and the other, up to 14 million people. And I'm particularly troubled that the data that was reportedly accessed included not just the personnel files but the security files of our defense, homeland security, and intelligence community employees. This could potentially jeopardize the financial security, personal safety, and ultimately the secrets that are entrusted to help protect the Nation.    While the facts of this case are still being unraveled, including the motive for the attack, the identity of the perpetrators and the potential damage they may have caused, we should understand, too, that the federal government is not alone in being the victim of cyber attacks. In the past year hundreds of millions of personal records have been compromised by hackers targeting J.P. Morgan Chase, eBay, Home Depot, Target, and other private companies. I seem to receive a new credit card or debit card about every 6 weeks from my bank with a note telling me that the card has been compromised yet again.    When I was in Switzerland, a State Department computer was hacked in one year, the Defense Department the next. The newspapers blamed China and Russia. Still, the OPM was significant and I'm particularly impacted--concerned about the impact this has on the morale of a federal workforce that recently has endured, through no fault of their own, a government shutdown, forced furloughs, staffing cuts, pay freezes. These government employees now have the added insult of a breach of their personal data.    Agency heads should also be mindful and accommodating of the impact of federal employees who need time off to mitigate the fallout from this hack. And I encourage OPM to communicate with all agencies to ensure that workers are accommodated so they can visit their banks, Social Security offices, creditors in order to deal with the repercussions of the breach.    I know every time I get a new card, I get four or five people that don't get paid because the card numbers change and then they call and--I know it upsets my wife terribly.    I'm also concerned that the reports of this attack suggest it may have been the result of individuals with ties to foreign entities and that particularly a private company working for the government as a security contractor may have been the weak link in the chain of events that led to the successful attack.    We're making steady, slow progress in fortifying our cyber defenses from potential attack. According to OMB's annual report on FISMA sent to Congress in February, there's been monitoring--improvement in federal agencies implementing continuous monitoring of their networks and the authentication of their users, for instance, but these results are not good enough. I know everyone on the panel here is interested in learning what we can do to strengthen the system as quickly as possible, as strongly as possible, recognizing that we're never going to have 100 percent security, that the creative hackers, ever younger, will figure out additional ways around it. How can we create the very best advice on closing cybersecurity holes if and when they exist and then augmenting our security defenses against them?    So I very much look forward to your testimony and your advice, and Madam Chair, I yield back.</t>
   </si>
   <si>
     <t>400381</t>
   </si>
   <si>
-    <t>Lamar Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Smith. Thank you, Madam Chair.    Today's hearing highlights the latest and, so far, the most extensive cybersecurity failure by a federal agency, the theft of millions of federal employee records from the Office of Personnel Management.    National defense in our digital age no longer just means protecting ourselves against enemies who attack with traditional weapons. It now means protecting America from those who launch cyber attacks against our computers and networks, invading our privacy and probably endangering lives.    But it is about much more than solely the invasion of privacy or the burden to our economy. This is a national security concern, as these breaches expose information about members of our military and employees of national security agencies.    A number of federal agencies guard America's cybersecurity interests. Several are under the jurisdiction of the Science Committee. These include the National Science Foundation, the National Institute of Standards and Technology, the Department of Homeland Security's Science and Technology Directorate, and the Department of Energy. All of these agencies support critical research and development to promote cybersecurity and set federal standards. However, it is clear that too many federal agencies like OPM fail to meet the basic standards of information security, and no one is being held accountable.    Last year audits revealed that 19 of 24 major federal agencies failed to meet the basic cybersecurity standards mandated by law. And yet the Administration has allowed deficient systems to stay online. What are the consequences when a federal agency fails to meet its basic duties to protect sensitive information? So far it seems the only people penalized are the millions of innocent Americans who have had their personal information exposed. It will be some time before we know the full extent of the damage to personal and national security caused by the OPM breach of security. But we do know that it is critical that we prevent further attacks on America's cyber systems.    The federal government failed in its responsibility to keep sensitive and personal information secure, and Americans deserve better. The Science Committee will continue its efforts to support the research and development essential to strengthen our Nation's cyber defenses. We will also continue to demand better answers from OPM on the extent of this breach.    The Director of the Office of Personnel Management recently testified: ``I don't believe anyone (at OPM) is personally responsible.'' That is not believable. In fact, it's an insult to the American people who pay her salary. The government should be accountable to the people, and this committee will continue to demand answers about who is responsible for failing to keep Americans' sensitive information secure. I hope we can use lessons learned from the OPM breach to help find solutions to prevent the next attack.    I look forward to hearing from our witnesses today and I'll yield back.</t>
   </si>
   <si>
-    <t>Esser</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Esser. Chairwoman, Chairman, Ranking Members, and Members of the Committee, good afternoon. My name is Michael Esser and I am the Assistant Inspector General for audits at the U.S. Office of Personnel Management. Thank you for inviting me to testify at today's hearing on the IT security work done by my office at OPM.    OPM has a long history of systemic failures to properly manage its IT infrastructure, which may have ultimately led to the recent data breaches. We are pleased to see that the agency is taking steps to improve its IT security posture but many challenges still lay ahead.    To begin, I would like to discuss some of the findings from our annual audits under the Federal Information Security Management Act, known as FISMA. We have identified three general areas of concern which are discussed in detail in my written testimony.    The first area is information security governance. This is the management structure and processes that form the foundation of a successful security program. It is vital to have a centralized governance structure. OPM has made improvements in this area but it is still working to recover from years of decentralization.    The second area is security assessments and authorizations. This is a comprehensive assessment of each IT system to ensure that it meets the applicable security standards before allowing the system to operate. Our 2014 FISMA audit found that 11 of OPM's 47 major systems were operating without a valid authorization. Because of actions taken by the CIO in April 2015 we expect this number to more than double by the end of fiscal year 2016.    The third area is technical security controls. OPM has implemented a variety of controls to make the agency's IT systems more secure. However, these tools must be used properly and must cover the entire IT environment. Our FISMA audit last year found that they were not.    These areas represent fundamental weaknesses in OPM's IT security program that have been reported to the OPM Director, OMB, and the Congress for many years. The fact that these longstanding issues were allowed to continue for so long without being taken seriously raises questions about the inherent effectiveness of the original FISMA legislation and implementing guidelines.    Since 2002 the IGs have been reviewing their agencies' information security programs, but the reporting guidelines from OMB were focused on compliance with specific security areas and lacked perspective on the overall effectiveness of the agency's program.    The FISMA Modernization Act of 2014 shifts the focus from review and compliance to assessing effectiveness of security controls. In addition, a new maturity model approach to evaluating the state of agencies' continuous monitoring programs was introduced in this year's FISMA reporting instructions for OIGs. These new developments should go a long way toward improving the IT security programs of federal agencies. OMB and DHS should also work toward making the OIG FISMA reporting metrics more reflective of the current risks and threats and further adopting the maturity model approach for other reporting domains.    I would also like to take a moment to discuss e-QIP, the IT system that OPM uses to collect information related to federal background investigations. Just last week, OPM disabled the system due to serious vulnerabilities detected in the design of the database and public facing website. While we agree with the actions taken, OPM has known about vulnerabilities in the system for years but has not corrected them. During the 2012 security assessment and authorization process for e-QIP, an independent assessor identified 18 security vulnerabilities which still remain open and unaddressed today. We believe this is an example of the importance of the security assessment process and also of OPM's historical negligence of IT security in general.    Moving forward, OPM is undertaking a massive infrastructure improvement project which, when completed, should significantly improve the agency's IT security posture. However, we identified several concerns related to OPM's failure to follow proper project management processes and the agency's use of a sole-source contract. These are discussed in more detail in my written testimony.    We fully support OPM's modernization efforts but we are concerned that if this project is not done correctly, the agency will be in a worse situation than it is today and millions of taxpayer dollars will have been wasted.    Thank you for your time and I'm happy to answer any questions.</t>
   </si>
   <si>
-    <t>Snell</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Snell. Thank you. Good afternoon and thank you for inviting me to testify. I appreciate the opportunity to express NARFE's views regarding the recent data breaches at the Office of Personnel Management, OPM. We are deeply concerned over the failure of the federal government to protect its personnel computer systems and the devastating impact the recent breaches of these systems may have on national security, as well as on the financial and personal security of millions of current and former federal employees.    Let me be clear. The potential consequences of these breaches are severe. The personal records obtained through the data breaches include the highly personal and sensitive information of millions of current and former employees and even applicants for federal employment. The extent of the breaches is enormous, likely reaching beyond 18 million individuals.    Possession of the information contained in the Standard Form 86, a 120-page security clearance form containing an applicant's life history, could give our enemies the means to attempt to corrupt or blackmail government employees and compromise military and intelligence secrets. Moreover, it could make public servants vulnerable to grave risks to their personal security and that of their families and loved ones.    While the perpetrators of this act bear the obvious and primary fault in this matter, the federal government, including both the Administration and Congress, has an obligation to do its best to protect the sensitive information its employees and job applicants are required to disclose as a condition of employment. It failed to meet that obligation.    Despite explicit warnings by Inspectors General since 1997, OPM failed to put in place adequate safeguards for both its aged and newer computer systems. This permitted the theft of massive amounts of personally identifiable information. Even now, the current OPM Inspector General issued a flash audit of OPM's plans to improve its data security and found them to have ``a very high risk of project failure.''    Our government has failed its employees. It is imperative to act swiftly and ensure an incident of this magnitude does not repeat itself. The Congressional oversight and response, including this hearing, is a good start, but we need continued vigilant efforts to improve the federal government's information technology and data security for the future.    The federal government, including both the Administration and Congress, now has an obligation to remedy to the best of its ability what has transpired. This should have started with effective communication with federal employees, retirees, and others affected by the breaches and the organizations that represent them. Unfortunately, communications has fallen short of expectations. While OPM has provided notice to those affected by the breach announced June 4 and has communicated with organizations in that regard, it has thus far failed in its basic duty to inform individuals affected by the second and more troubling breach announced June 12 and continues to fail to answer many important questions about both breaches. The failure of OPM to safeguard personal information should not be compounded by deflecting questions.    Our written testimony details many of the questions we are still seeking answers to regarding the details of exactly what data has been accessed. The federal community and everyone affected by the data have been--data breach deserves answers to these questions.    In addition, to better communication, the federal government should provide lifetime credit monitoring and additional identity theft insurance. The 18 months of credit monitoring offered by OPM is woefully inadequate. The depth of personal information exposed is enormous and the threat to individuals extends way beyond 18 months. It is only fair to provide financial protection in line with the threat that has been posed. Furthermore, Congress should appropriate funds necessary to provide this protection.    The question posed in the title of this hearing ``Is This the Tip of the Iceberg?'' is a valid one. While I cannot answer that, I will say I certainly hope not. The recent breaches should be a wake-up call to this country and its leaders about the dangers of cyber terrorism and the critical need to protect our government's core functions. Let's make sure this isn't the tip of the iceberg but rather the last time our federal government has to deal with cybersecurity breach that threatens the financial security of its employees.    Thank you again for the opportunity to share our views.</t>
   </si>
   <si>
-    <t>Romine</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Romine. Chairwoman Comstock, Chairman Loudermilk, Ranking Member Lipinski, Ranking Member Beyer, and Members of the Subcommittees, I'm Dr. Charles Romine, Director of the Information Technology Laboratory at NIST. Thank you for the opportunity to appear before you today to discuss our responsibilities for assisting federal agencies with cybersecurity.    NIST has worked in cybersecurity with federal agencies, industry, and academia since 1972. Our role, to research, develop, and deploy information security standards and technology to protect information systems against threats to the confidentiality, integrity, and availability of information and services was strengthened through the Computer Security Act of 1987, broadened through the Federal Information Security Management Act of 2002 or FISMA, and reaffirmed in the Federal Information Security Modernization Act of 2014.    NIST carries out its responsibilities under FISMA through the creation of a series of Federal Information Processing Standards, or FIPS, and associated guidelines. Under FISMA agencies are required to implement those FIPS. To further assist agencies, NIST provides management, operational, and technical security guidelines covering a broad range of cybersecurity topics.    NIST has a series of specific responsibilities in FISMA to--of particular relevance to today's hearing were addressed by NIST and published as FIPS 199, the standard for security categorization of federal information and information systems; and FIPS 200, which sets the minimum security requirements based on the categorization identified using FIPS 199.    NIST created baselines for these minimum security requirements based on three levels determined in accordance with FIPS 199: low, moderate, and high. For example, at a high categorization, FIPS 199 states that ``the loss of confidentiality, integrity, or availability could be expected to have a severe or catastrophic adverse effect on organizational operations, organizational assets, or individuals.''    Examples of controls included in the associated baselines then cover a range of requirements for a lifecycle of security. For example, security awareness and training, contingency planning, access control, system disposal, and incident response. Once a baseline is established, NIST provides guidance to agencies to assist in determining that the baseline is adequate to meet their risk-based requirements.    An agency may need to enhance a given baseline to address local risks, the agency's mission, and technical infrastructure. For example, an agency with a real-time monitoring system such as workstations in air traffic control or critical patient monitoring systems might not want to use a timed password-locked screensaver to mitigate security issues for unattended workstations. Instead, a guard or site surveillance system might be more appropriate to support the mission and still meet the intent of the baseline.    Establishing a sound security baseline is not the end of security for an agency. NIST provides standards, guidelines, and tools for agencies to test and assess their security and continuously monitor their implementation and new risks. The authorization of a system by a management official is an important quality control under FISMA. By authorizing a system, the manager formally assumes responsibility for operating a system at an acceptable level of risk to the agency operations or individuals.    Under FISMA, NIST does not assess ,audit, or test agency security implementations. Congress recognized that placing such responsibilities on NIST would impede its ability to work with federal agency and private-sector stakeholders to develop standards, guidelines, and practices in the open, transparent, and collaborative manner that Congress intended.    NIST's statutory role as the developer but not the enforcer of standards and guidelines under FISMA have ensured NIST's ongoing ability to engage freely and positively with federal agencies on the implementation challenges and issues they experience in using these standards and guidelines. NIST is committed to continue to help agency officials address their responsibilities under FISMA to understand and mitigate risks to their information and information systems that could adversely affect their missions.    We recognize that we have an essential responsibility in cybersecurity and in helping industry, consumers, and government to counter cybersecurity threats. Active collaboration within the public sector and between the public and private sectors is the only way to effectively meet this challenge leveraging each participant's roles, responsibilities, and capabilities.    Thank you for the opportunity to testify today on NIST's work in federal cybersecurity and I would be happy to answer any questions that you may have.</t>
   </si>
   <si>
-    <t>Wilshusen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Wilshusen. Chairman Comstock, Chairman Loudermilk, Ranking Members Lipinski and Beyer, and Members of the Subcommittees, thank you for the opportunity to testify at today's hearing.    The recent OPM data breaches affected millions of federal employees. However, OPM is by no means the only agency to suffer data breaches or face challenges securing its computer systems and information. The number of information security incidents both cyber and non-cyber reported by federal agencies continues to rise, increasing from about 5,500 in fiscal year 2006 to over 67,000 in fiscal year 2014. Similarly, the number of incidents involving personally identifiable information more than doubled in recent years to over 27,000 in fiscal year 2014. These incidents illustrate the need for stronger information security controls across the federal government.    Today, I will discuss several cyber threats to federal systems, cybersecurity challenges facing federal agencies, and governmentwide initiatives aimed at improving cybersecurity.    Before I begin, if I may, I'd like to recognize members of my team who are instrumental in developing my statement and some of the work underpinning it. With me today is Larry Crosland, an Assistant Director who led this body of work. I also want to recognize Brad Becker, Lee McCracken, Chris Businsky, Scott Pettis, who also made significant contributions.    Madam Chairwoman, Mr. Chairman, the federal government faces an array of cyber-based threats to its computer networks and systems. These threats include both targeted and untargeted attacks from a variety of sources, including criminal groups, hackers, disgruntled insiders, and foreign nations. These sources vary in terms of their capabilities, willingness to act, and motives, which can include seeking monetary gain or pursuing an economic, political, or economic advantage.    In the grip of these threats, most federal agencies face challenges securing their systems and networks. Agencies continue to have shortcomings in assessing risks, developing and implementing security controls, and monitoring results. For example, 19 of 24 agencies covered by the Chief Financial Officers Act reported that information security weaknesses were either significant deficiency or material weakness for financial reporting purposes. And the Inspectors General at 23 of these agencies cited information security as a major management challenge for their agency.    Agencies also need to provide better oversight of the security their contractor operator systems. Five of six agencies we reviewed did not consistently assess their contractors' information security practices and controls, resulting in security lapses.    Even with effective controls, security incidents and data breaches can still occur. Agencies need to react swiftly and appropriately when they do. However, seven agencies we reviewed had not consistently implemented key operational practices for responding to data breaches involving personal information. GAO and agency IGs have made hundreds of recommendations to assist agencies in addressing these and other challenges. Implementing these recommendations will help strengthen agencies' ability to protect their systems and information.    DHS and the Office of Management and Budget have also launched several governmentwide initiatives to enhance cybersecurity. One such initiative is requiring stronger authentication of users through the use of personal identity verification, or PIV cards. However, OMB recently reported that only 41 percent of agency user accounts at 23 civilian agencies required PIV cards for accessing agency system's.    Another initiative, the National Cybersecurity Protection System is intended to detect and prevent malicious network traffic from entering federal civilian networks. GAO is presently reviewing the implementation of this system. Our preliminary observations indicate that the systems intrusion detection and prevention capabilities may be useful but are also limited.    While governmentwide initiatives hold promise for bolstering the federal cybersecurity posture, no single technology or set of practices is sufficient to protect against all cyber threats. A multilayered defense in-depth strategy that includes well-trained personnel, effective and consistently applied processes, and appropriate technologies is needed to better manage cyber risks.    This concludes my oral statement. I'd be happy to answer your questions.</t>
   </si>
   <si>
@@ -307,9 +283,6 @@
     <t>412199</t>
   </si>
   <si>
-    <t>Henry C. "Hank" Johnson, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Johnson. Thank you, Madam Chairman. And, gentlemen, thank you for joining us today.    I--you know, cybersecurity and the kind of attack that we saw on OPM I think--and I believe I read it here somewhere earlier today--is just the tip of the iceberg. As a 30-year IT professional myself, I firmly understand that as long as computers are working off of 1s and 0s, the bad guys are going to be out there trying to get in. And the battle space is huge and our ability to protect it is going to require constant vigilance. It's not a problem that has--it's not a race that has a finish line because as soon as we get to one point, the goalposts are moved and the game strategy changes.    And I spent a lot of my time helping to educate and inform those that will listen so that we understand. But this is a big issue and communications and computing technologies are foundational to our economy and to virtually every industry that supports our economy, including our own national security. So it's a really big issue.    Mr. Esser, the OPM Director has stated that some of OPM's network systems are so old that it has been difficult if not impossible to upgrade and encrypt them. How credible is that explanation and how many of the OPM systems that were hacked were these old legacy systems versus more modern ones capable of encryptions and upgrades?</t>
   </si>
   <si>
@@ -349,9 +322,6 @@
     <t xml:space="preserve">    Mr. Johnson. Okay. Well, gentlemen, thank you very much and I've exhausted my time.    Madam Chair, I yield back.    Chairwoman Comstock. Thank you.    I now recognize Ms. Bonamici.</t>
   </si>
   <si>
-    <t>Bonamici</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Bonamici. Thank you very much, Madam Chair. Thanks to the Chairs and Ranking Members for this important conversation and thanks to the witnesses who are here. I wish we each had five hours instead of five minutes because there are so many questions.    So I wanted to start, Mr. Snell, you mentioned the issues and the challenges with notification and communication, and this is something that I want to recognize both in the public and private sector has been a challenge. And of course with the number of current and former federal employees, it's my understanding that the FISMA requirement requires notice to affected individuals provided as expeditiously as practicable and without unreasonable delay. So those are obviously terms that are not concrete depending on the circumstances. I just bring this up to recognize the importance of communicating with people who are victims of the data breaches. And it's not just an issue in the federal arena either, in the private sector as well.    I want to go back to the point that was made about encryption. It's my understanding that Estonia, even though it's a small country, had a significant data breach in 2007 and has really come around and is now considered one of the countries that does the best job of protecting data. Granted it's a smaller--much smaller population but they do make--heavy use of encryption. And they also have focused on educating the workforce.    And I also serve on the Education Committee and I wanted to ask about the--whether we are really educating people who will be able to be the people who are preventing as well as understanding how we need to do this both psychologically and technically. So do we need to improve cybersecurity education? Are there enough opportunities for the workforce? Do we have the people we need out there to be able to do these jobs? I'll start with Mr. Wilshusen.</t>
   </si>
   <si>
@@ -397,9 +367,6 @@
     <t xml:space="preserve">    Ms. Bonamici. Thank you so much. I see my time is expired. I yield back. Thank you.    Chairwoman Comstock. Thank you. And I would just take privilege to note, I know when I was visiting schools that also do the hacking and training them, you know, that--it's a great growth area for kids to get engaged in and get educated on because there's going to be lots of jobs for them in this area. And I know somebody who works in the business so they tell their clients if we can't hack into your system, you shouldn't hire us to protect your system because that's part of what their job is to constantly be looking for the next attack, right? So that's--thank you.    I now recognize Mr. Abraham for five minutes.</t>
   </si>
   <si>
-    <t>Abraham</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Abraham. Thank you, Madam Chair.    I guess first I'll express my disappointment for the Chief Information Officer Ms. Seymour not--or declining our invitation to come speak here. It's my understanding that she has extensive involvement in preparing this system. Might I suggest that if OPM had put extensive involvement in preventing this, we might not even be having this hearing. So just that as a statement.    Mr. Wilshusen, I'm going to start with you. Has the federal government's response to this breach in your opinion been sufficient?</t>
   </si>
   <si>
@@ -433,9 +400,6 @@
     <t xml:space="preserve">    Dr. Abraham. Okay. Thank you.    Madam Chair, I'll yield back.    Chairwoman Comstock. Thank you, Mr. Abraham.    Ms. Esty.</t>
   </si>
   <si>
-    <t>Esty</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Esty. Thank you, Madam Chair. I want to thank you and Chairman Loudermilk and Ranking Members Lipinski and Beyer for holding today's extremely important hearing. And as we've--as has already been noted, with three other breaches having been noted today in the private sector, it's very much on all of our minds.    Our national and personal security depends on a strong cybersecurity infrastructure, and the recent breaches that have been disclosed with OPM are to me particularly disturbing when I look at the security clearance records that could have been compromised. No credit check is going to make up for the risk to not just personal security but our nation's security for every individual who went through or was consulted as part of that system.    So I'd like you to think and maybe get back to us on what sort of protection and advice do we give on the national security front, on the security breach aspect because that is very different than your personal information to raid your bank account. That's a risk of grave concern for this country, which we haven't really discussed today.    It seems to me a number of issues have been raised and I want to quickly tick them off and then focus on the last. We need to understand the extent of vulnerability and that's been discussed at some length. The accountability for what's happened also been raised by other Members. And I want to focus on the last two, our capacity to address these issues in the future. That's a question in part of resources and that's been mentioned, both personnel resources--and Representative Bonamici raised an issue she and I share a grave concern and interest in, encouraging young people to pursue these fields and making sure we have enough capacity on both the private sector side and the public sector side. Is it a priority issue? Do we need to have different prioritization?    But the last issue I'd really like you to respond to is how do we move to a continuous monitoring or effectiveness model from what we've had, which is a compliance model? It seems to me we have a real challenge. Congress enacts laws. Laws are about compliance. They are snapshots in time that reflect our knowledge and technical capabilities. But as we've all discussed here today, these are evolving risks, and the moment we stick a pin in the butterfly and pin it down, it will change by the time we finish pushing that pin in.    So if you could discuss a little bit what can we do on the Congressional side and what can the agencies due to move to a mindset that is much more nimble and that is in a continuous mode because that's going to be both what our hard and software look like but also our mindset about what compliance actually means.</t>
   </si>
   <si>
@@ -448,9 +412,6 @@
     <t xml:space="preserve">    Ms. Esty. I see my time is expired.    Chairwoman Comstock. We want to be able to squeeze in our last two folks here.    Mr. Palmer, I recognize you for five minutes.</t>
   </si>
   <si>
-    <t>Palmer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Palmer. Thank you, Madam Chairman.    We've talked about Defense in Depth and the hardware but I want to talk about the individuals involved.    Dr. Wilshusen, OPM and the Department of Homeland Security officials stated that the attackers who reached OPM's systems may have been aided by user credentials that were obtained or stolen from one of OPM's contractors. Andy Ozment testified before the Oversight Committee that part of this breach may have occurred through social engineering. I want to know in your opinion what agencies can do to ensure that their IT contractors are effectively protecting federal systems and information? I mean I fully get it that we need to completely overhaul our hardware and software, but that alone in the context of Defense in Depth will not secure the system.</t>
   </si>
   <si>
@@ -479,9 +440,6 @@
   </si>
   <si>
     <t>412319</t>
-  </si>
-  <si>
-    <t>Paul Tonko</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Tonko. Thank you, Madam Chair.    The--being a former federal employee, Mr. Snell, what are the kinds of communication that you would like to see happen?</t>
@@ -916,11 +874,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -940,13 +896,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -966,13 +920,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -992,13 +944,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1020,11 +970,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1046,11 +994,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1072,11 +1018,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>27</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1098,11 +1042,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>29</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1124,11 +1066,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
         <v>23</v>
-      </c>
-      <c r="H10" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1150,11 +1090,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>23</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1176,11 +1114,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
         <v>25</v>
-      </c>
-      <c r="H12" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1202,11 +1138,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>29</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1228,11 +1162,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>25</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1254,11 +1186,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>25</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1280,11 +1210,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1306,11 +1234,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>23</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1332,11 +1258,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1358,11 +1282,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>27</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1384,11 +1306,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1410,11 +1330,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>29</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1436,11 +1354,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1462,11 +1378,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>29</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1488,11 +1402,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1514,11 +1426,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>23</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1540,11 +1450,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1564,13 +1472,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1592,11 +1498,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>29</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1616,13 +1520,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1644,11 +1546,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>29</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1668,13 +1568,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1696,11 +1594,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>29</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1720,13 +1616,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1748,11 +1642,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>29</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1772,13 +1664,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1800,11 +1690,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>29</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1824,13 +1712,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1852,11 +1738,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>29</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1876,13 +1760,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1904,11 +1786,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>29</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1928,13 +1808,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1956,11 +1834,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>29</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1980,13 +1856,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2008,11 +1882,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>29</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2032,13 +1904,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2060,11 +1930,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>29</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2084,13 +1952,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2112,11 +1978,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>29</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2136,13 +2000,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2164,11 +2026,9 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s">
-        <v>29</v>
-      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2188,13 +2048,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2214,13 +2072,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2240,13 +2096,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2268,11 +2122,9 @@
       <c r="F54" t="s">
         <v>11</v>
       </c>
-      <c r="G54" t="s">
-        <v>29</v>
-      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2292,13 +2144,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2320,11 +2170,9 @@
       <c r="F56" t="s">
         <v>11</v>
       </c>
-      <c r="G56" t="s">
-        <v>29</v>
-      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2344,13 +2192,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2370,13 +2216,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2398,11 +2242,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>25</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2422,13 +2264,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>17</v>
-      </c>
-      <c r="G60" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2450,11 +2290,9 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="G61" t="s">
-        <v>25</v>
-      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2474,13 +2312,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>17</v>
-      </c>
-      <c r="G62" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2502,11 +2338,9 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>25</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2526,13 +2360,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>17</v>
-      </c>
-      <c r="G64" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2554,11 +2386,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>25</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2578,13 +2408,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>17</v>
-      </c>
-      <c r="G66" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2606,11 +2434,9 @@
       <c r="F67" t="s">
         <v>11</v>
       </c>
-      <c r="G67" t="s">
-        <v>23</v>
-      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2630,13 +2456,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>17</v>
-      </c>
-      <c r="G68" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2658,11 +2482,9 @@
       <c r="F69" t="s">
         <v>11</v>
       </c>
-      <c r="G69" t="s">
-        <v>27</v>
-      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2682,13 +2504,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>17</v>
-      </c>
-      <c r="G70" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2710,11 +2530,9 @@
       <c r="F71" t="s">
         <v>11</v>
       </c>
-      <c r="G71" t="s">
-        <v>27</v>
-      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2734,13 +2552,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>17</v>
-      </c>
-      <c r="G72" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2762,11 +2578,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>27</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2786,13 +2600,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>17</v>
-      </c>
-      <c r="G74" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2812,13 +2624,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>96</v>
-      </c>
-      <c r="G75" t="s">
-        <v>97</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2840,11 +2650,9 @@
       <c r="F76" t="s">
         <v>11</v>
       </c>
-      <c r="G76" t="s">
-        <v>23</v>
-      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2864,13 +2672,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>96</v>
-      </c>
-      <c r="G77" t="s">
-        <v>97</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2892,11 +2698,9 @@
       <c r="F78" t="s">
         <v>11</v>
       </c>
-      <c r="G78" t="s">
-        <v>23</v>
-      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2916,13 +2720,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>96</v>
-      </c>
-      <c r="G79" t="s">
-        <v>97</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2944,11 +2746,9 @@
       <c r="F80" t="s">
         <v>11</v>
       </c>
-      <c r="G80" t="s">
-        <v>23</v>
-      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2968,13 +2768,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>96</v>
-      </c>
-      <c r="G81" t="s">
-        <v>97</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2996,11 +2794,9 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="G82" t="s">
-        <v>29</v>
-      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3020,13 +2816,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>96</v>
-      </c>
-      <c r="G83" t="s">
+        <v>88</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
         <v>97</v>
-      </c>
-      <c r="H83" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3048,11 +2842,9 @@
       <c r="F84" t="s">
         <v>11</v>
       </c>
-      <c r="G84" t="s">
-        <v>27</v>
-      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3072,13 +2864,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>96</v>
-      </c>
-      <c r="G85" t="s">
-        <v>97</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3100,11 +2890,9 @@
       <c r="F86" t="s">
         <v>11</v>
       </c>
-      <c r="G86" t="s">
-        <v>29</v>
-      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3124,13 +2912,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>96</v>
-      </c>
-      <c r="G87" t="s">
-        <v>97</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3152,11 +2938,9 @@
       <c r="F88" t="s">
         <v>11</v>
       </c>
-      <c r="G88" t="s">
-        <v>111</v>
-      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3178,11 +2962,9 @@
       <c r="F89" t="s">
         <v>11</v>
       </c>
-      <c r="G89" t="s">
-        <v>29</v>
-      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3204,11 +2986,9 @@
       <c r="F90" t="s">
         <v>11</v>
       </c>
-      <c r="G90" t="s">
-        <v>111</v>
-      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3230,11 +3010,9 @@
       <c r="F91" t="s">
         <v>11</v>
       </c>
-      <c r="G91" t="s">
-        <v>29</v>
-      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3256,11 +3034,9 @@
       <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="G92" t="s">
-        <v>111</v>
-      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3282,11 +3058,9 @@
       <c r="F93" t="s">
         <v>11</v>
       </c>
-      <c r="G93" t="s">
-        <v>29</v>
-      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3308,11 +3082,9 @@
       <c r="F94" t="s">
         <v>11</v>
       </c>
-      <c r="G94" t="s">
-        <v>111</v>
-      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3334,11 +3106,9 @@
       <c r="F95" t="s">
         <v>11</v>
       </c>
-      <c r="G95" t="s">
-        <v>23</v>
-      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3360,11 +3130,9 @@
       <c r="F96" t="s">
         <v>11</v>
       </c>
-      <c r="G96" t="s">
-        <v>111</v>
-      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3386,11 +3154,9 @@
       <c r="F97" t="s">
         <v>11</v>
       </c>
-      <c r="G97" t="s">
-        <v>25</v>
-      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3412,11 +3178,9 @@
       <c r="F98" t="s">
         <v>11</v>
       </c>
-      <c r="G98" t="s">
-        <v>111</v>
-      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3438,11 +3202,9 @@
       <c r="F99" t="s">
         <v>11</v>
       </c>
-      <c r="G99" t="s">
-        <v>27</v>
-      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3464,11 +3226,9 @@
       <c r="F100" t="s">
         <v>11</v>
       </c>
-      <c r="G100" t="s">
-        <v>111</v>
-      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3490,11 +3250,9 @@
       <c r="F101" t="s">
         <v>11</v>
       </c>
-      <c r="G101" t="s">
-        <v>29</v>
-      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3516,11 +3274,9 @@
       <c r="F102" t="s">
         <v>11</v>
       </c>
-      <c r="G102" t="s">
-        <v>111</v>
-      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3542,11 +3298,9 @@
       <c r="F103" t="s">
         <v>11</v>
       </c>
-      <c r="G103" t="s">
-        <v>127</v>
-      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3568,11 +3322,9 @@
       <c r="F104" t="s">
         <v>11</v>
       </c>
-      <c r="G104" t="s">
-        <v>29</v>
-      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3594,11 +3346,9 @@
       <c r="F105" t="s">
         <v>11</v>
       </c>
-      <c r="G105" t="s">
-        <v>127</v>
-      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3620,11 +3370,9 @@
       <c r="F106" t="s">
         <v>11</v>
       </c>
-      <c r="G106" t="s">
-        <v>29</v>
-      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3646,11 +3394,9 @@
       <c r="F107" t="s">
         <v>11</v>
       </c>
-      <c r="G107" t="s">
-        <v>127</v>
-      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3672,11 +3418,9 @@
       <c r="F108" t="s">
         <v>11</v>
       </c>
-      <c r="G108" t="s">
-        <v>29</v>
-      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3698,11 +3442,9 @@
       <c r="F109" t="s">
         <v>11</v>
       </c>
-      <c r="G109" t="s">
-        <v>127</v>
-      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3724,11 +3466,9 @@
       <c r="F110" t="s">
         <v>11</v>
       </c>
-      <c r="G110" t="s">
-        <v>29</v>
-      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3750,11 +3490,9 @@
       <c r="F111" t="s">
         <v>11</v>
       </c>
-      <c r="G111" t="s">
-        <v>127</v>
-      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3776,11 +3514,9 @@
       <c r="F112" t="s">
         <v>11</v>
       </c>
-      <c r="G112" t="s">
-        <v>23</v>
-      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3802,11 +3538,9 @@
       <c r="F113" t="s">
         <v>11</v>
       </c>
-      <c r="G113" t="s">
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
         <v>127</v>
-      </c>
-      <c r="H113" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3828,11 +3562,9 @@
       <c r="F114" t="s">
         <v>11</v>
       </c>
-      <c r="G114" t="s">
-        <v>139</v>
-      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3854,11 +3586,9 @@
       <c r="F115" t="s">
         <v>11</v>
       </c>
-      <c r="G115" t="s">
-        <v>29</v>
-      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3880,11 +3610,9 @@
       <c r="F116" t="s">
         <v>11</v>
       </c>
-      <c r="G116" t="s">
-        <v>27</v>
-      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3906,11 +3634,9 @@
       <c r="F117" t="s">
         <v>11</v>
       </c>
-      <c r="G117" t="s">
-        <v>139</v>
-      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3932,11 +3658,9 @@
       <c r="F118" t="s">
         <v>11</v>
       </c>
-      <c r="G118" t="s">
-        <v>144</v>
-      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3958,11 +3682,9 @@
       <c r="F119" t="s">
         <v>11</v>
       </c>
-      <c r="G119" t="s">
-        <v>29</v>
-      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3984,11 +3706,9 @@
       <c r="F120" t="s">
         <v>11</v>
       </c>
-      <c r="G120" t="s">
-        <v>144</v>
-      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4010,11 +3730,9 @@
       <c r="F121" t="s">
         <v>11</v>
       </c>
-      <c r="G121" t="s">
-        <v>29</v>
-      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4036,11 +3754,9 @@
       <c r="F122" t="s">
         <v>11</v>
       </c>
-      <c r="G122" t="s">
-        <v>144</v>
-      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4062,11 +3778,9 @@
       <c r="F123" t="s">
         <v>11</v>
       </c>
-      <c r="G123" t="s">
-        <v>29</v>
-      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4088,11 +3802,9 @@
       <c r="F124" t="s">
         <v>11</v>
       </c>
-      <c r="G124" t="s">
-        <v>144</v>
-      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4114,11 +3826,9 @@
       <c r="F125" t="s">
         <v>11</v>
       </c>
-      <c r="G125" t="s">
-        <v>25</v>
-      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4140,11 +3850,9 @@
       <c r="F126" t="s">
         <v>11</v>
       </c>
-      <c r="G126" t="s">
-        <v>144</v>
-      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4164,13 +3872,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>154</v>
-      </c>
-      <c r="G127" t="s">
-        <v>155</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4192,11 +3898,9 @@
       <c r="F128" t="s">
         <v>11</v>
       </c>
-      <c r="G128" t="s">
-        <v>25</v>
-      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4216,13 +3920,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>154</v>
-      </c>
-      <c r="G129" t="s">
-        <v>155</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4244,11 +3946,9 @@
       <c r="F130" t="s">
         <v>11</v>
       </c>
-      <c r="G130" t="s">
-        <v>23</v>
-      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4268,13 +3968,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>154</v>
-      </c>
-      <c r="G131" t="s">
-        <v>155</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4296,11 +3994,9 @@
       <c r="F132" t="s">
         <v>11</v>
       </c>
-      <c r="G132" t="s">
-        <v>23</v>
-      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4320,13 +4016,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>154</v>
-      </c>
-      <c r="G133" t="s">
-        <v>155</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4348,11 +4042,9 @@
       <c r="F134" t="s">
         <v>11</v>
       </c>
-      <c r="G134" t="s">
-        <v>23</v>
-      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4372,13 +4064,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>154</v>
-      </c>
-      <c r="G135" t="s">
-        <v>155</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4400,11 +4090,9 @@
       <c r="F136" t="s">
         <v>11</v>
       </c>
-      <c r="G136" t="s">
-        <v>23</v>
-      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4424,13 +4112,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>154</v>
-      </c>
-      <c r="G137" t="s">
-        <v>155</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4452,11 +4138,9 @@
       <c r="F138" t="s">
         <v>11</v>
       </c>
-      <c r="G138" t="s">
-        <v>29</v>
-      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97568.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97568.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="174">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,36 +55,69 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Lipinski</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lipinski. Thank you, Chairwoman Comstock. I want to thank you, Chairman Loudermilk, Chairman Smith, for holding this hearing on the recent OPM data breach. I want to thank all of our witnesses for being here this afternoon.    Unfortunately, major cyber attacks are happening more frequently. Today, we're going to talk about the significant breaches at the Office of Personnel Management. I have not received notification, but I believe I may have been a victim of this. But we all know that--I don't want to take away the significance of it but it's important to note there have been increasing number of cyber attacks in both the private and public sector where I know I've definitely been a victim of some of these attacks.    Several years ago, I began working on cybersecurity legislation, the Cybersecurity Enhancement Act, with my colleague Mr. McCall. Our legislation dealt with cybersecurity standards, education, and workforce development. When we started, I said that I had no doubt that threats from individual hackers, criminal syndicates, and even other governments would grow and evolve along with our increased use of the internet. Unfortunately, I was right.    In February, Anthem, one of the Nation's largest health insurance companies, announced it suffered a cyber breach that compromised the records of 80 million current and former customers. And just last year, there were high-profile breaches at J.P. Morgan Chase, eBay, Target, and many others affecting millions of people.    Although I was happy that my bill with Mr. McCall was enacted at the end of last Congress, there is much, much more to do in the area of cybersecurity. Cybercrime and cyber espionage continue to threaten our national security, our critical infrastructure, businesses of all sizes, and every single American. This latest data breach at OPM is just another example of that.    In the OPM breach, millions of federal employees' personal information has been compromised, leading to significant concerns about how the stolen information will be used. Additionally, since OPM conducts more than 90 percent of all security clearance background investigations, this breach is an example of how cyber attacks threaten our national security. We must do better.    It'll take a collective effort in both the public and private sector to improve cybersecurity, and I cannot emphasize enough the importance of research into the social and behavioral aspects in this area. Our IT infrastructure is built, operated, and maintained by humans from the average worker at her desktop to Chief Information Officer of a major company or agency. Most cyber attacks are successful because of human error such as unwittingly opening a malicious email or allowing one's credentials to be compromised. Understanding the human element is necessary to combat threats and reduce risks.    To set governmentwide guidelines protecting federal information security systems, Congress passed--if I can turn my page--an example of human error here. Congress passed the Federal Information Security Modernization Act, or FISMA. FISMA, which was updated at the end of last Congress, requires federal agencies to develop, document, and implement an agencywide information security program.    Along with being responsible for their own information security system, the National Institute of Standards and Technology is tasked with developing standards and guidelines for all civilian federal information systems. Since NIST plays a critical role in protecting our nation's information security systems, it's important that they be part of this conversation. I'm happy that Dr. Romine is here today to tell us more about how NIST develops FISMA standards and how they work with other federal agencies.    FISMA also requires annual reviews of individual agencies' information security programs, as well as reviews of information security policies in the implementation of FISMA requirements governmentwide. I hope to hear from our witnesses about the steps necessary to ensure that OPM meets FISMA requirements, as well as how other agencies are doing in this space.    More information security systems, both in the public and private sector, will surely be subject to cyber attacks in the future, and while it's impossible to completely protect the connected information security system, we must do all we can to protect the personal information of millions of Americans and conduct the oversight to ensure such steps are taken. This hearing is the beginning of a conversation on how we can do that, and we must make sure that we follow through with action.    I look forward to our discussion this afternoon. Thank you, and I yield back the balance of my time.</t>
   </si>
   <si>
     <t>412624</t>
   </si>
   <si>
+    <t>Loudermilk</t>
+  </si>
+  <si>
+    <t>Barry</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Loudermilk. Thank you, Chairwoman Comstock, for holding this very important hearing on an issue that hits close to home for you, as many--as others in this country.    I'd like to thank our witnesses for being here today in order to help us understand what seems to be an epidemic of cyber attacks. I look forward to discussing what needs need to be done to prevent similar attacks from occurring in the future.    Now, it isn't a priority, nor it should be a priority for us just to address this because it affects some of us that are up here, but it's because it affects the American people. And unfortunately, this Administration has failed to provide Americans with any level of confidence that it will adequately protect their personal information when trusted with it.    As we have witnessed over the past few months, there has been a concerning pattern of security breaches involving government computer systems. This includes the recent, massive data breach of the Office of Personnel Management disclosing personal and official information that could potentially harm our national security. For an Administration that touts that it has ``prioritized the cybersecurity of federal departments and agencies,'' we have instead witnessed a government that is unable to properly secure its computer systems and protect sensitive information.    The situation at OPM is exactly why the subcommittee that I chair is looking into the collection of America's--Americans' personal data through the HealthCare.gov website. In that situation, it appears that Social Security numbers, dates of birth, names, mailing addresses, phone numbers, financial accounts information, military status, employment status, passport numbers, and taxpayer IDs are being retained. This information is being stored in a data warehouse that is intended to provide reporting and performance metrics related to the Federally Facilitated Marketplace and other HealthCare.gov-related systems.    In the situation of the data warehouse, the Administration never appeared to be forthright about the use and storage of personally identifiable information on HealthCare.gov. The Administration has yet to explain the reason for indefinitely storing user information, particularly of the users of the website who input their data to log in but do not end up enrolling.    While this Administration has claimed that cybersecurity is a priority, their actions on this and other issues regarding protecting the American people suggests the priorities are only lip service. From ending the Secure Cities program to storing critical information on American citizens without their approval or knowledge, this Administration is proving through their actions that protecting the American people is far from being on their list of priorities.    If that data warehouse is being protected in the same way that OPM was protecting personal information, action needs to be taken now to avoid putting the American people at significant personal risk. With many Americans being forced into the government healthcare exchange, a breach of this system could end up having millions affected, just like the OPM data hack.    The Government Accountability Office has included the cybersecurity of federal information systems on its list of high risk areas since 1997, so this isn't something new. Why, then, are we sitting here almost 20 years later, wondering why our federal information systems are not being adequately secured?    In the most recent GAO High Risk Series report, it says that ``Inspectors General at 22 of the 24 agencies cited information security as a major management challenge for their agency. For fiscal year 2014, most of the agencies had information security weaknesses in the majority of five key control categories.'' As Chairman of this subcommittee--this Committee's Oversight Subcommittee, I want to find the truth behind this reckless behavior that is threatening the safety and security of the American people. These actions--or rather, lack of actions--put the future of our nation at great risk and must stop.    I look forward to today's hearing, which I anticipate will inform us more about the recent OPM breach and the current state of our federal information systems. We owe it to the American people to ensure that their personally identifiable information is safe and protected from cybercriminals.    And with that, Madam Chair, I yield back.</t>
   </si>
   <si>
     <t>412657</t>
   </si>
   <si>
+    <t>Beyer</t>
+  </si>
+  <si>
+    <t>Donald</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Beyer. Thank you, Madam Chair. And thank you, Chairs Comstock and Loudermilk, for holding this hearing today, incredibly timely and--because, you know, earlier today obviously New York Stock Exchange, United Airlines, the Wall Street Journal all suffering from computer glitches that has disrupted their computer networks. And whether this turns out to be intentional or whether--or not, it certainly highlights the potential vulnerabilities of our digital dependence. And today's hearing obviously is about Office of Personnel Management.    Deterring, detecting, and defending against the multitude of online threats that constantly lurk in the cyberspace domain is a critical issue for federal agencies and the federal government and the private sector alike. Last year alone, federal agencies reported nearly 70,000 individual computer security incidents to the U.S. Computer Emergency Readiness Team, or CERT. During the same time period, October 1, 2013, to September 30, 2014, nonfederal entities reported more than 570,000 incidents and many other incidents are potentially not identified or even not reported at all. Cyber threats are constant, they're evolving, they're very sophisticated, and many pose serious distress to companies, agencies, and individuals.    The two recent data breaches at OPM are particularly important to me and to my constituents. Representing a Congressional District just outside the Nation's capital, many of my constituents are federal employees who may have had their personal data compromised as a result of these intrusions. One of those attacks is believed to have compromised the personal information of more than four million people and the other, up to 14 million people. And I'm particularly troubled that the data that was reportedly accessed included not just the personnel files but the security files of our defense, homeland security, and intelligence community employees. This could potentially jeopardize the financial security, personal safety, and ultimately the secrets that are entrusted to help protect the Nation.    While the facts of this case are still being unraveled, including the motive for the attack, the identity of the perpetrators and the potential damage they may have caused, we should understand, too, that the federal government is not alone in being the victim of cyber attacks. In the past year hundreds of millions of personal records have been compromised by hackers targeting J.P. Morgan Chase, eBay, Home Depot, Target, and other private companies. I seem to receive a new credit card or debit card about every 6 weeks from my bank with a note telling me that the card has been compromised yet again.    When I was in Switzerland, a State Department computer was hacked in one year, the Defense Department the next. The newspapers blamed China and Russia. Still, the OPM was significant and I'm particularly impacted--concerned about the impact this has on the morale of a federal workforce that recently has endured, through no fault of their own, a government shutdown, forced furloughs, staffing cuts, pay freezes. These government employees now have the added insult of a breach of their personal data.    Agency heads should also be mindful and accommodating of the impact of federal employees who need time off to mitigate the fallout from this hack. And I encourage OPM to communicate with all agencies to ensure that workers are accommodated so they can visit their banks, Social Security offices, creditors in order to deal with the repercussions of the breach.    I know every time I get a new card, I get four or five people that don't get paid because the card numbers change and then they call and--I know it upsets my wife terribly.    I'm also concerned that the reports of this attack suggest it may have been the result of individuals with ties to foreign entities and that particularly a private company working for the government as a security contractor may have been the weak link in the chain of events that led to the successful attack.    We're making steady, slow progress in fortifying our cyber defenses from potential attack. According to OMB's annual report on FISMA sent to Congress in February, there's been monitoring--improvement in federal agencies implementing continuous monitoring of their networks and the authentication of their users, for instance, but these results are not good enough. I know everyone on the panel here is interested in learning what we can do to strengthen the system as quickly as possible, as strongly as possible, recognizing that we're never going to have 100 percent security, that the creative hackers, ever younger, will figure out additional ways around it. How can we create the very best advice on closing cybersecurity holes if and when they exist and then augmenting our security defenses against them?    So I very much look forward to your testimony and your advice, and Madam Chair, I yield back.</t>
   </si>
   <si>
     <t>400381</t>
   </si>
   <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Lamar</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Smith. Thank you, Madam Chair.    Today's hearing highlights the latest and, so far, the most extensive cybersecurity failure by a federal agency, the theft of millions of federal employee records from the Office of Personnel Management.    National defense in our digital age no longer just means protecting ourselves against enemies who attack with traditional weapons. It now means protecting America from those who launch cyber attacks against our computers and networks, invading our privacy and probably endangering lives.    But it is about much more than solely the invasion of privacy or the burden to our economy. This is a national security concern, as these breaches expose information about members of our military and employees of national security agencies.    A number of federal agencies guard America's cybersecurity interests. Several are under the jurisdiction of the Science Committee. These include the National Science Foundation, the National Institute of Standards and Technology, the Department of Homeland Security's Science and Technology Directorate, and the Department of Energy. All of these agencies support critical research and development to promote cybersecurity and set federal standards. However, it is clear that too many federal agencies like OPM fail to meet the basic standards of information security, and no one is being held accountable.    Last year audits revealed that 19 of 24 major federal agencies failed to meet the basic cybersecurity standards mandated by law. And yet the Administration has allowed deficient systems to stay online. What are the consequences when a federal agency fails to meet its basic duties to protect sensitive information? So far it seems the only people penalized are the millions of innocent Americans who have had their personal information exposed. It will be some time before we know the full extent of the damage to personal and national security caused by the OPM breach of security. But we do know that it is critical that we prevent further attacks on America's cyber systems.    The federal government failed in its responsibility to keep sensitive and personal information secure, and Americans deserve better. The Science Committee will continue its efforts to support the research and development essential to strengthen our Nation's cyber defenses. We will also continue to demand better answers from OPM on the extent of this breach.    The Director of the Office of Personnel Management recently testified: ``I don't believe anyone (at OPM) is personally responsible.'' That is not believable. In fact, it's an insult to the American people who pay her salary. The government should be accountable to the people, and this committee will continue to demand answers about who is responsible for failing to keep Americans' sensitive information secure. I hope we can use lessons learned from the OPM breach to help find solutions to prevent the next attack.    I look forward to hearing from our witnesses today and I'll yield back.</t>
   </si>
   <si>
+    <t>Esser</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Esser. Chairwoman, Chairman, Ranking Members, and Members of the Committee, good afternoon. My name is Michael Esser and I am the Assistant Inspector General for audits at the U.S. Office of Personnel Management. Thank you for inviting me to testify at today's hearing on the IT security work done by my office at OPM.    OPM has a long history of systemic failures to properly manage its IT infrastructure, which may have ultimately led to the recent data breaches. We are pleased to see that the agency is taking steps to improve its IT security posture but many challenges still lay ahead.    To begin, I would like to discuss some of the findings from our annual audits under the Federal Information Security Management Act, known as FISMA. We have identified three general areas of concern which are discussed in detail in my written testimony.    The first area is information security governance. This is the management structure and processes that form the foundation of a successful security program. It is vital to have a centralized governance structure. OPM has made improvements in this area but it is still working to recover from years of decentralization.    The second area is security assessments and authorizations. This is a comprehensive assessment of each IT system to ensure that it meets the applicable security standards before allowing the system to operate. Our 2014 FISMA audit found that 11 of OPM's 47 major systems were operating without a valid authorization. Because of actions taken by the CIO in April 2015 we expect this number to more than double by the end of fiscal year 2016.    The third area is technical security controls. OPM has implemented a variety of controls to make the agency's IT systems more secure. However, these tools must be used properly and must cover the entire IT environment. Our FISMA audit last year found that they were not.    These areas represent fundamental weaknesses in OPM's IT security program that have been reported to the OPM Director, OMB, and the Congress for many years. The fact that these longstanding issues were allowed to continue for so long without being taken seriously raises questions about the inherent effectiveness of the original FISMA legislation and implementing guidelines.    Since 2002 the IGs have been reviewing their agencies' information security programs, but the reporting guidelines from OMB were focused on compliance with specific security areas and lacked perspective on the overall effectiveness of the agency's program.    The FISMA Modernization Act of 2014 shifts the focus from review and compliance to assessing effectiveness of security controls. In addition, a new maturity model approach to evaluating the state of agencies' continuous monitoring programs was introduced in this year's FISMA reporting instructions for OIGs. These new developments should go a long way toward improving the IT security programs of federal agencies. OMB and DHS should also work toward making the OIG FISMA reporting metrics more reflective of the current risks and threats and further adopting the maturity model approach for other reporting domains.    I would also like to take a moment to discuss e-QIP, the IT system that OPM uses to collect information related to federal background investigations. Just last week, OPM disabled the system due to serious vulnerabilities detected in the design of the database and public facing website. While we agree with the actions taken, OPM has known about vulnerabilities in the system for years but has not corrected them. During the 2012 security assessment and authorization process for e-QIP, an independent assessor identified 18 security vulnerabilities which still remain open and unaddressed today. We believe this is an example of the importance of the security assessment process and also of OPM's historical negligence of IT security in general.    Moving forward, OPM is undertaking a massive infrastructure improvement project which, when completed, should significantly improve the agency's IT security posture. However, we identified several concerns related to OPM's failure to follow proper project management processes and the agency's use of a sole-source contract. These are discussed in more detail in my written testimony.    We fully support OPM's modernization efforts but we are concerned that if this project is not done correctly, the agency will be in a worse situation than it is today and millions of taxpayer dollars will have been wasted.    Thank you for your time and I'm happy to answer any questions.</t>
   </si>
   <si>
+    <t>Snell</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Snell. Thank you. Good afternoon and thank you for inviting me to testify. I appreciate the opportunity to express NARFE's views regarding the recent data breaches at the Office of Personnel Management, OPM. We are deeply concerned over the failure of the federal government to protect its personnel computer systems and the devastating impact the recent breaches of these systems may have on national security, as well as on the financial and personal security of millions of current and former federal employees.    Let me be clear. The potential consequences of these breaches are severe. The personal records obtained through the data breaches include the highly personal and sensitive information of millions of current and former employees and even applicants for federal employment. The extent of the breaches is enormous, likely reaching beyond 18 million individuals.    Possession of the information contained in the Standard Form 86, a 120-page security clearance form containing an applicant's life history, could give our enemies the means to attempt to corrupt or blackmail government employees and compromise military and intelligence secrets. Moreover, it could make public servants vulnerable to grave risks to their personal security and that of their families and loved ones.    While the perpetrators of this act bear the obvious and primary fault in this matter, the federal government, including both the Administration and Congress, has an obligation to do its best to protect the sensitive information its employees and job applicants are required to disclose as a condition of employment. It failed to meet that obligation.    Despite explicit warnings by Inspectors General since 1997, OPM failed to put in place adequate safeguards for both its aged and newer computer systems. This permitted the theft of massive amounts of personally identifiable information. Even now, the current OPM Inspector General issued a flash audit of OPM's plans to improve its data security and found them to have ``a very high risk of project failure.''    Our government has failed its employees. It is imperative to act swiftly and ensure an incident of this magnitude does not repeat itself. The Congressional oversight and response, including this hearing, is a good start, but we need continued vigilant efforts to improve the federal government's information technology and data security for the future.    The federal government, including both the Administration and Congress, now has an obligation to remedy to the best of its ability what has transpired. This should have started with effective communication with federal employees, retirees, and others affected by the breaches and the organizations that represent them. Unfortunately, communications has fallen short of expectations. While OPM has provided notice to those affected by the breach announced June 4 and has communicated with organizations in that regard, it has thus far failed in its basic duty to inform individuals affected by the second and more troubling breach announced June 12 and continues to fail to answer many important questions about both breaches. The failure of OPM to safeguard personal information should not be compounded by deflecting questions.    Our written testimony details many of the questions we are still seeking answers to regarding the details of exactly what data has been accessed. The federal community and everyone affected by the data have been--data breach deserves answers to these questions.    In addition, to better communication, the federal government should provide lifetime credit monitoring and additional identity theft insurance. The 18 months of credit monitoring offered by OPM is woefully inadequate. The depth of personal information exposed is enormous and the threat to individuals extends way beyond 18 months. It is only fair to provide financial protection in line with the threat that has been posed. Furthermore, Congress should appropriate funds necessary to provide this protection.    The question posed in the title of this hearing ``Is This the Tip of the Iceberg?'' is a valid one. While I cannot answer that, I will say I certainly hope not. The recent breaches should be a wake-up call to this country and its leaders about the dangers of cyber terrorism and the critical need to protect our government's core functions. Let's make sure this isn't the tip of the iceberg but rather the last time our federal government has to deal with cybersecurity breach that threatens the financial security of its employees.    Thank you again for the opportunity to share our views.</t>
   </si>
   <si>
+    <t>Romine</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Romine. Chairwoman Comstock, Chairman Loudermilk, Ranking Member Lipinski, Ranking Member Beyer, and Members of the Subcommittees, I'm Dr. Charles Romine, Director of the Information Technology Laboratory at NIST. Thank you for the opportunity to appear before you today to discuss our responsibilities for assisting federal agencies with cybersecurity.    NIST has worked in cybersecurity with federal agencies, industry, and academia since 1972. Our role, to research, develop, and deploy information security standards and technology to protect information systems against threats to the confidentiality, integrity, and availability of information and services was strengthened through the Computer Security Act of 1987, broadened through the Federal Information Security Management Act of 2002 or FISMA, and reaffirmed in the Federal Information Security Modernization Act of 2014.    NIST carries out its responsibilities under FISMA through the creation of a series of Federal Information Processing Standards, or FIPS, and associated guidelines. Under FISMA agencies are required to implement those FIPS. To further assist agencies, NIST provides management, operational, and technical security guidelines covering a broad range of cybersecurity topics.    NIST has a series of specific responsibilities in FISMA to--of particular relevance to today's hearing were addressed by NIST and published as FIPS 199, the standard for security categorization of federal information and information systems; and FIPS 200, which sets the minimum security requirements based on the categorization identified using FIPS 199.    NIST created baselines for these minimum security requirements based on three levels determined in accordance with FIPS 199: low, moderate, and high. For example, at a high categorization, FIPS 199 states that ``the loss of confidentiality, integrity, or availability could be expected to have a severe or catastrophic adverse effect on organizational operations, organizational assets, or individuals.''    Examples of controls included in the associated baselines then cover a range of requirements for a lifecycle of security. For example, security awareness and training, contingency planning, access control, system disposal, and incident response. Once a baseline is established, NIST provides guidance to agencies to assist in determining that the baseline is adequate to meet their risk-based requirements.    An agency may need to enhance a given baseline to address local risks, the agency's mission, and technical infrastructure. For example, an agency with a real-time monitoring system such as workstations in air traffic control or critical patient monitoring systems might not want to use a timed password-locked screensaver to mitigate security issues for unattended workstations. Instead, a guard or site surveillance system might be more appropriate to support the mission and still meet the intent of the baseline.    Establishing a sound security baseline is not the end of security for an agency. NIST provides standards, guidelines, and tools for agencies to test and assess their security and continuously monitor their implementation and new risks. The authorization of a system by a management official is an important quality control under FISMA. By authorizing a system, the manager formally assumes responsibility for operating a system at an acceptable level of risk to the agency operations or individuals.    Under FISMA, NIST does not assess ,audit, or test agency security implementations. Congress recognized that placing such responsibilities on NIST would impede its ability to work with federal agency and private-sector stakeholders to develop standards, guidelines, and practices in the open, transparent, and collaborative manner that Congress intended.    NIST's statutory role as the developer but not the enforcer of standards and guidelines under FISMA have ensured NIST's ongoing ability to engage freely and positively with federal agencies on the implementation challenges and issues they experience in using these standards and guidelines. NIST is committed to continue to help agency officials address their responsibilities under FISMA to understand and mitigate risks to their information and information systems that could adversely affect their missions.    We recognize that we have an essential responsibility in cybersecurity and in helping industry, consumers, and government to counter cybersecurity threats. Active collaboration within the public sector and between the public and private sectors is the only way to effectively meet this challenge leveraging each participant's roles, responsibilities, and capabilities.    Thank you for the opportunity to testify today on NIST's work in federal cybersecurity and I would be happy to answer any questions that you may have.</t>
   </si>
   <si>
+    <t>Wilshusen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Wilshusen. Chairman Comstock, Chairman Loudermilk, Ranking Members Lipinski and Beyer, and Members of the Subcommittees, thank you for the opportunity to testify at today's hearing.    The recent OPM data breaches affected millions of federal employees. However, OPM is by no means the only agency to suffer data breaches or face challenges securing its computer systems and information. The number of information security incidents both cyber and non-cyber reported by federal agencies continues to rise, increasing from about 5,500 in fiscal year 2006 to over 67,000 in fiscal year 2014. Similarly, the number of incidents involving personally identifiable information more than doubled in recent years to over 27,000 in fiscal year 2014. These incidents illustrate the need for stronger information security controls across the federal government.    Today, I will discuss several cyber threats to federal systems, cybersecurity challenges facing federal agencies, and governmentwide initiatives aimed at improving cybersecurity.    Before I begin, if I may, I'd like to recognize members of my team who are instrumental in developing my statement and some of the work underpinning it. With me today is Larry Crosland, an Assistant Director who led this body of work. I also want to recognize Brad Becker, Lee McCracken, Chris Businsky, Scott Pettis, who also made significant contributions.    Madam Chairwoman, Mr. Chairman, the federal government faces an array of cyber-based threats to its computer networks and systems. These threats include both targeted and untargeted attacks from a variety of sources, including criminal groups, hackers, disgruntled insiders, and foreign nations. These sources vary in terms of their capabilities, willingness to act, and motives, which can include seeking monetary gain or pursuing an economic, political, or economic advantage.    In the grip of these threats, most federal agencies face challenges securing their systems and networks. Agencies continue to have shortcomings in assessing risks, developing and implementing security controls, and monitoring results. For example, 19 of 24 agencies covered by the Chief Financial Officers Act reported that information security weaknesses were either significant deficiency or material weakness for financial reporting purposes. And the Inspectors General at 23 of these agencies cited information security as a major management challenge for their agency.    Agencies also need to provide better oversight of the security their contractor operator systems. Five of six agencies we reviewed did not consistently assess their contractors' information security practices and controls, resulting in security lapses.    Even with effective controls, security incidents and data breaches can still occur. Agencies need to react swiftly and appropriately when they do. However, seven agencies we reviewed had not consistently implemented key operational practices for responding to data breaches involving personal information. GAO and agency IGs have made hundreds of recommendations to assist agencies in addressing these and other challenges. Implementing these recommendations will help strengthen agencies' ability to protect their systems and information.    DHS and the Office of Management and Budget have also launched several governmentwide initiatives to enhance cybersecurity. One such initiative is requiring stronger authentication of users through the use of personal identity verification, or PIV cards. However, OMB recently reported that only 41 percent of agency user accounts at 23 civilian agencies required PIV cards for accessing agency system's.    Another initiative, the National Cybersecurity Protection System is intended to detect and prevent malicious network traffic from entering federal civilian networks. GAO is presently reviewing the implementation of this system. Our preliminary observations indicate that the systems intrusion detection and prevention capabilities may be useful but are also limited.    While governmentwide initiatives hold promise for bolstering the federal cybersecurity posture, no single technology or set of practices is sufficient to protect against all cyber threats. A multilayered defense in-depth strategy that includes well-trained personnel, effective and consistently applied processes, and appropriate technologies is needed to better manage cyber risks.    This concludes my oral statement. I'd be happy to answer your questions.</t>
   </si>
   <si>
@@ -283,6 +319,12 @@
     <t>412199</t>
   </si>
   <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Johnson. Thank you, Madam Chairman. And, gentlemen, thank you for joining us today.    I--you know, cybersecurity and the kind of attack that we saw on OPM I think--and I believe I read it here somewhere earlier today--is just the tip of the iceberg. As a 30-year IT professional myself, I firmly understand that as long as computers are working off of 1s and 0s, the bad guys are going to be out there trying to get in. And the battle space is huge and our ability to protect it is going to require constant vigilance. It's not a problem that has--it's not a race that has a finish line because as soon as we get to one point, the goalposts are moved and the game strategy changes.    And I spent a lot of my time helping to educate and inform those that will listen so that we understand. But this is a big issue and communications and computing technologies are foundational to our economy and to virtually every industry that supports our economy, including our own national security. So it's a really big issue.    Mr. Esser, the OPM Director has stated that some of OPM's network systems are so old that it has been difficult if not impossible to upgrade and encrypt them. How credible is that explanation and how many of the OPM systems that were hacked were these old legacy systems versus more modern ones capable of encryptions and upgrades?</t>
   </si>
   <si>
@@ -322,6 +364,9 @@
     <t xml:space="preserve">    Mr. Johnson. Okay. Well, gentlemen, thank you very much and I've exhausted my time.    Madam Chair, I yield back.    Chairwoman Comstock. Thank you.    I now recognize Ms. Bonamici.</t>
   </si>
   <si>
+    <t>Bonamici</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Bonamici. Thank you very much, Madam Chair. Thanks to the Chairs and Ranking Members for this important conversation and thanks to the witnesses who are here. I wish we each had five hours instead of five minutes because there are so many questions.    So I wanted to start, Mr. Snell, you mentioned the issues and the challenges with notification and communication, and this is something that I want to recognize both in the public and private sector has been a challenge. And of course with the number of current and former federal employees, it's my understanding that the FISMA requirement requires notice to affected individuals provided as expeditiously as practicable and without unreasonable delay. So those are obviously terms that are not concrete depending on the circumstances. I just bring this up to recognize the importance of communicating with people who are victims of the data breaches. And it's not just an issue in the federal arena either, in the private sector as well.    I want to go back to the point that was made about encryption. It's my understanding that Estonia, even though it's a small country, had a significant data breach in 2007 and has really come around and is now considered one of the countries that does the best job of protecting data. Granted it's a smaller--much smaller population but they do make--heavy use of encryption. And they also have focused on educating the workforce.    And I also serve on the Education Committee and I wanted to ask about the--whether we are really educating people who will be able to be the people who are preventing as well as understanding how we need to do this both psychologically and technically. So do we need to improve cybersecurity education? Are there enough opportunities for the workforce? Do we have the people we need out there to be able to do these jobs? I'll start with Mr. Wilshusen.</t>
   </si>
   <si>
@@ -367,6 +412,9 @@
     <t xml:space="preserve">    Ms. Bonamici. Thank you so much. I see my time is expired. I yield back. Thank you.    Chairwoman Comstock. Thank you. And I would just take privilege to note, I know when I was visiting schools that also do the hacking and training them, you know, that--it's a great growth area for kids to get engaged in and get educated on because there's going to be lots of jobs for them in this area. And I know somebody who works in the business so they tell their clients if we can't hack into your system, you shouldn't hire us to protect your system because that's part of what their job is to constantly be looking for the next attack, right? So that's--thank you.    I now recognize Mr. Abraham for five minutes.</t>
   </si>
   <si>
+    <t>Abraham</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Abraham. Thank you, Madam Chair.    I guess first I'll express my disappointment for the Chief Information Officer Ms. Seymour not--or declining our invitation to come speak here. It's my understanding that she has extensive involvement in preparing this system. Might I suggest that if OPM had put extensive involvement in preventing this, we might not even be having this hearing. So just that as a statement.    Mr. Wilshusen, I'm going to start with you. Has the federal government's response to this breach in your opinion been sufficient?</t>
   </si>
   <si>
@@ -400,6 +448,9 @@
     <t xml:space="preserve">    Dr. Abraham. Okay. Thank you.    Madam Chair, I'll yield back.    Chairwoman Comstock. Thank you, Mr. Abraham.    Ms. Esty.</t>
   </si>
   <si>
+    <t>Esty</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Esty. Thank you, Madam Chair. I want to thank you and Chairman Loudermilk and Ranking Members Lipinski and Beyer for holding today's extremely important hearing. And as we've--as has already been noted, with three other breaches having been noted today in the private sector, it's very much on all of our minds.    Our national and personal security depends on a strong cybersecurity infrastructure, and the recent breaches that have been disclosed with OPM are to me particularly disturbing when I look at the security clearance records that could have been compromised. No credit check is going to make up for the risk to not just personal security but our nation's security for every individual who went through or was consulted as part of that system.    So I'd like you to think and maybe get back to us on what sort of protection and advice do we give on the national security front, on the security breach aspect because that is very different than your personal information to raid your bank account. That's a risk of grave concern for this country, which we haven't really discussed today.    It seems to me a number of issues have been raised and I want to quickly tick them off and then focus on the last. We need to understand the extent of vulnerability and that's been discussed at some length. The accountability for what's happened also been raised by other Members. And I want to focus on the last two, our capacity to address these issues in the future. That's a question in part of resources and that's been mentioned, both personnel resources--and Representative Bonamici raised an issue she and I share a grave concern and interest in, encouraging young people to pursue these fields and making sure we have enough capacity on both the private sector side and the public sector side. Is it a priority issue? Do we need to have different prioritization?    But the last issue I'd really like you to respond to is how do we move to a continuous monitoring or effectiveness model from what we've had, which is a compliance model? It seems to me we have a real challenge. Congress enacts laws. Laws are about compliance. They are snapshots in time that reflect our knowledge and technical capabilities. But as we've all discussed here today, these are evolving risks, and the moment we stick a pin in the butterfly and pin it down, it will change by the time we finish pushing that pin in.    So if you could discuss a little bit what can we do on the Congressional side and what can the agencies due to move to a mindset that is much more nimble and that is in a continuous mode because that's going to be both what our hard and software look like but also our mindset about what compliance actually means.</t>
   </si>
   <si>
@@ -412,6 +463,9 @@
     <t xml:space="preserve">    Ms. Esty. I see my time is expired.    Chairwoman Comstock. We want to be able to squeeze in our last two folks here.    Mr. Palmer, I recognize you for five minutes.</t>
   </si>
   <si>
+    <t>Palmer</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Palmer. Thank you, Madam Chairman.    We've talked about Defense in Depth and the hardware but I want to talk about the individuals involved.    Dr. Wilshusen, OPM and the Department of Homeland Security officials stated that the attackers who reached OPM's systems may have been aided by user credentials that were obtained or stolen from one of OPM's contractors. Andy Ozment testified before the Oversight Committee that part of this breach may have occurred through social engineering. I want to know in your opinion what agencies can do to ensure that their IT contractors are effectively protecting federal systems and information? I mean I fully get it that we need to completely overhaul our hardware and software, but that alone in the context of Defense in Depth will not secure the system.</t>
   </si>
   <si>
@@ -440,6 +494,12 @@
   </si>
   <si>
     <t>412319</t>
+  </si>
+  <si>
+    <t>Tonko</t>
+  </si>
+  <si>
+    <t>Paul</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Tonko. Thank you, Madam Chair.    The--being a former federal employee, Mr. Snell, what are the kinds of communication that you would like to see happen?</t>
@@ -824,7 +884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H138"/>
+  <dimension ref="A1:I138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -832,7 +892,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -854,3293 +914,3791 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s"/>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
       <c r="H4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
       <c r="H5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G27" t="s">
+        <v>16</v>
+      </c>
       <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G29" t="s">
+        <v>16</v>
+      </c>
       <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G31" t="s">
+        <v>16</v>
+      </c>
       <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G33" t="s">
+        <v>16</v>
+      </c>
       <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G35" t="s">
+        <v>16</v>
+      </c>
       <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G37" t="s">
+        <v>16</v>
+      </c>
       <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>33</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G39" t="s">
+        <v>16</v>
+      </c>
       <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>33</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G41" t="s">
+        <v>16</v>
+      </c>
       <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>33</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G43" t="s">
+        <v>16</v>
+      </c>
       <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>33</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G45" t="s">
+        <v>16</v>
+      </c>
       <c r="H45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>33</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G47" t="s">
+        <v>16</v>
+      </c>
       <c r="H47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>33</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G49" t="s">
+        <v>16</v>
+      </c>
       <c r="H49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>33</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G51" t="s">
+        <v>16</v>
+      </c>
       <c r="H51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G52" t="s">
+        <v>16</v>
+      </c>
       <c r="H52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G53" t="s">
+        <v>16</v>
+      </c>
       <c r="H53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>33</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G55" t="s">
+        <v>16</v>
+      </c>
       <c r="H55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>33</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G57" t="s">
+        <v>16</v>
+      </c>
       <c r="H57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>15</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G58" t="s">
+        <v>20</v>
+      </c>
       <c r="H58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>29</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>15</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G60" t="s">
+        <v>20</v>
+      </c>
       <c r="H60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I60" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>29</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>15</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G62" t="s">
+        <v>20</v>
+      </c>
       <c r="H62" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>29</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>15</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G64" t="s">
+        <v>20</v>
+      </c>
       <c r="H64" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I64" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>29</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>15</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G66" t="s">
+        <v>20</v>
+      </c>
       <c r="H66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I66" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>27</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>15</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G68" t="s">
+        <v>20</v>
+      </c>
       <c r="H68" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>31</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>15</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G70" t="s">
+        <v>20</v>
+      </c>
       <c r="H70" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I70" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>31</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>15</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G72" t="s">
+        <v>20</v>
+      </c>
       <c r="H72" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I72" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>31</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>15</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G74" t="s">
+        <v>20</v>
+      </c>
       <c r="H74" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I74" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>88</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G75" t="s">
+        <v>101</v>
+      </c>
       <c r="H75" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I75" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G76" t="s">
+        <v>27</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>88</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G77" t="s">
+        <v>101</v>
+      </c>
       <c r="H77" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I77" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G78" t="s">
+        <v>27</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>88</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G79" t="s">
+        <v>101</v>
+      </c>
       <c r="H79" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I79" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G80" t="s">
+        <v>27</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>88</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G81" t="s">
+        <v>101</v>
+      </c>
       <c r="H81" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I81" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>33</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>88</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G83" t="s">
+        <v>101</v>
+      </c>
       <c r="H83" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I83" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G84" t="s">
+        <v>31</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>88</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G85" t="s">
+        <v>101</v>
+      </c>
       <c r="H85" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I85" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G86" t="s">
+        <v>33</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>88</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G87" t="s">
+        <v>101</v>
+      </c>
       <c r="H87" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I87" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>11</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G88" t="s">
+        <v>116</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G89" t="s">
+        <v>33</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>11</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G90" t="s">
+        <v>116</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G91" t="s">
+        <v>33</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>116</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>33</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>116</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>11</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G95" t="s">
+        <v>27</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>11</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G96" t="s">
+        <v>116</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>11</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G97" t="s">
+        <v>29</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>116</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G99" t="s">
+        <v>31</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>116</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
+        <v>33</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
+        <v>12</v>
+      </c>
+      <c r="G102" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G103" t="s">
+        <v>132</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>11</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>33</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>11</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G105" t="s">
+        <v>132</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>33</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>11</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>132</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>11</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G108" t="s">
+        <v>33</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>11</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>132</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G110" t="s">
+        <v>33</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>11</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G111" t="s">
+        <v>132</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>11</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
+        <v>27</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>11</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
+        <v>132</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>11</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G114" t="s">
+        <v>144</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>11</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>33</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>11</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G116" t="s">
+        <v>31</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>144</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>11</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>149</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>11</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>33</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>11</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G120" t="s">
+        <v>149</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>11</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G121" t="s">
+        <v>33</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>11</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G122" t="s">
+        <v>149</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>11</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G123" t="s">
+        <v>33</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>11</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G124" t="s">
+        <v>149</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>11</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G125" t="s">
+        <v>29</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>11</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G126" t="s">
+        <v>149</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>141</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>159</v>
+      </c>
+      <c r="G127" t="s">
+        <v>160</v>
+      </c>
       <c r="H127" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>161</v>
+      </c>
+      <c r="I127" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>11</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G128" t="s">
+        <v>29</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>141</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>159</v>
+      </c>
+      <c r="G129" t="s">
+        <v>160</v>
+      </c>
       <c r="H129" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>161</v>
+      </c>
+      <c r="I129" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>11</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G130" t="s">
+        <v>27</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>141</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>159</v>
+      </c>
+      <c r="G131" t="s">
+        <v>160</v>
+      </c>
       <c r="H131" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>161</v>
+      </c>
+      <c r="I131" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>11</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G132" t="s">
+        <v>27</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>141</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>159</v>
+      </c>
+      <c r="G133" t="s">
+        <v>160</v>
+      </c>
       <c r="H133" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>161</v>
+      </c>
+      <c r="I133" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>11</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G134" t="s">
+        <v>27</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>141</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>159</v>
+      </c>
+      <c r="G135" t="s">
+        <v>160</v>
+      </c>
       <c r="H135" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>161</v>
+      </c>
+      <c r="I135" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>11</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G136" t="s">
+        <v>27</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>141</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>159</v>
+      </c>
+      <c r="G137" t="s">
+        <v>160</v>
+      </c>
       <c r="H137" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>161</v>
+      </c>
+      <c r="I137" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>11</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>153</v>
+        <v>12</v>
+      </c>
+      <c r="G138" t="s">
+        <v>33</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97568.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97568.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="178">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -64,6 +67,9 @@
     <t>412624</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Loudermilk</t>
   </si>
   <si>
@@ -76,6 +82,9 @@
     <t>412657</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Beyer</t>
   </si>
   <si>
@@ -86,6 +95,9 @@
   </si>
   <si>
     <t>400381</t>
+  </si>
+  <si>
+    <t>Ex Officio</t>
   </si>
   <si>
     <t>Smith</t>
@@ -884,7 +896,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I138"/>
+  <dimension ref="A1:J138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -892,7 +904,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -917,3788 +929,4012 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2" t="s"/>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
         <v>33</v>
       </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" t="s">
-        <v>33</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" t="s">
-        <v>33</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>37</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" t="s">
-        <v>33</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>37</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" t="s">
-        <v>33</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>37</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" t="s">
-        <v>33</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>37</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" t="s">
-        <v>33</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G37" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" t="s">
-        <v>33</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>37</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G39" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" t="s">
-        <v>33</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>37</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H41" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" t="s">
-        <v>33</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>37</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G43" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" t="s">
-        <v>33</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>37</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G45" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H45" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I45" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" t="s">
-        <v>33</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>37</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G47" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H47" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I47" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" t="s">
-        <v>33</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>37</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G49" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H49" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I49" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" t="s">
-        <v>33</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>37</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G51" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H51" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I51" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G52" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G53" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H53" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I53" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" t="s">
-        <v>33</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>37</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G55" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H55" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I55" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J55" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" t="s">
-        <v>33</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>37</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G57" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H57" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I57" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G58" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H58" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I58" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" t="s">
-        <v>29</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>33</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G60" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H60" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I60" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J60" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" t="s">
-        <v>29</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>33</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G62" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H62" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I62" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63" t="s">
-        <v>29</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>33</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G64" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H64" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I64" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" t="s">
-        <v>29</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>33</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G66" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H66" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I66" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
-      </c>
-      <c r="G67" t="s">
-        <v>27</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>31</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G68" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H68" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I68" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J68" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" t="s">
-        <v>31</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>35</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G70" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H70" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I70" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J70" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
-      </c>
-      <c r="G71" t="s">
-        <v>31</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>35</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G72" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H72" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I72" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J72" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73" t="s">
-        <v>31</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>35</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G74" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H74" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I74" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J74" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G75" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="H75" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I75" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>106</v>
+      </c>
+      <c r="J75" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
-      </c>
-      <c r="G76" t="s">
-        <v>27</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>31</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G77" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="H77" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I77" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>106</v>
+      </c>
+      <c r="J77" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
-      </c>
-      <c r="G78" t="s">
-        <v>27</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>31</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G79" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="H79" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I79" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>106</v>
+      </c>
+      <c r="J79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
-      </c>
-      <c r="G80" t="s">
-        <v>27</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>31</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G81" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="H81" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I81" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>106</v>
+      </c>
+      <c r="J81" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
-      </c>
-      <c r="G82" t="s">
-        <v>33</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>37</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G83" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="H83" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I83" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>106</v>
+      </c>
+      <c r="J83" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
-      </c>
-      <c r="G84" t="s">
-        <v>31</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>35</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G85" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="H85" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I85" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>106</v>
+      </c>
+      <c r="J85" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86" t="s">
-        <v>33</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>37</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G87" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="H87" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I87" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>106</v>
+      </c>
+      <c r="J87" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>12</v>
-      </c>
-      <c r="G88" t="s">
-        <v>116</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>120</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
-      </c>
-      <c r="G89" t="s">
-        <v>33</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>37</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>12</v>
-      </c>
-      <c r="G90" t="s">
-        <v>116</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>120</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
-      </c>
-      <c r="G91" t="s">
-        <v>33</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>37</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
-      </c>
-      <c r="G92" t="s">
-        <v>116</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>120</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>12</v>
-      </c>
-      <c r="G93" t="s">
-        <v>33</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>37</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
-      </c>
-      <c r="G94" t="s">
-        <v>116</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>120</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
-      </c>
-      <c r="G95" t="s">
-        <v>27</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>31</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>12</v>
-      </c>
-      <c r="G96" t="s">
-        <v>116</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>120</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>12</v>
-      </c>
-      <c r="G97" t="s">
-        <v>29</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>33</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
-      </c>
-      <c r="G98" t="s">
-        <v>116</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>120</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
-      </c>
-      <c r="G99" t="s">
-        <v>31</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>35</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
-      </c>
-      <c r="G100" t="s">
-        <v>116</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>120</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
-      </c>
-      <c r="G101" t="s">
-        <v>33</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>37</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>12</v>
-      </c>
-      <c r="G102" t="s">
-        <v>116</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>120</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
-      </c>
-      <c r="G103" t="s">
-        <v>132</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>136</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
-      </c>
-      <c r="G104" t="s">
-        <v>33</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>37</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>12</v>
-      </c>
-      <c r="G105" t="s">
-        <v>132</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>136</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
-      </c>
-      <c r="G106" t="s">
-        <v>33</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>37</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>12</v>
-      </c>
-      <c r="G107" t="s">
-        <v>132</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>136</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>12</v>
-      </c>
-      <c r="G108" t="s">
-        <v>33</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>37</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>12</v>
-      </c>
-      <c r="G109" t="s">
-        <v>132</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>136</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>12</v>
-      </c>
-      <c r="G110" t="s">
-        <v>33</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>37</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>12</v>
-      </c>
-      <c r="G111" t="s">
-        <v>132</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>136</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>12</v>
-      </c>
-      <c r="G112" t="s">
-        <v>27</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>31</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>12</v>
-      </c>
-      <c r="G113" t="s">
-        <v>132</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>136</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>12</v>
-      </c>
-      <c r="G114" t="s">
-        <v>144</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>148</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>12</v>
-      </c>
-      <c r="G115" t="s">
-        <v>33</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>37</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>12</v>
-      </c>
-      <c r="G116" t="s">
-        <v>31</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>35</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>12</v>
-      </c>
-      <c r="G117" t="s">
-        <v>144</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
+        <v>13</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="118" spans="1:9">
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>12</v>
-      </c>
-      <c r="G118" t="s">
-        <v>149</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>153</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>12</v>
-      </c>
-      <c r="G119" t="s">
-        <v>33</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>37</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>12</v>
-      </c>
-      <c r="G120" t="s">
-        <v>149</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>153</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>12</v>
-      </c>
-      <c r="G121" t="s">
-        <v>33</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>37</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>12</v>
-      </c>
-      <c r="G122" t="s">
-        <v>149</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>153</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>12</v>
-      </c>
-      <c r="G123" t="s">
-        <v>33</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>37</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>12</v>
-      </c>
-      <c r="G124" t="s">
-        <v>149</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>153</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>12</v>
-      </c>
-      <c r="G125" t="s">
-        <v>29</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>33</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>12</v>
-      </c>
-      <c r="G126" t="s">
-        <v>149</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>153</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G127" t="s">
-        <v>160</v>
+        <v>17</v>
       </c>
       <c r="H127" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I127" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>165</v>
+      </c>
+      <c r="J127" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>12</v>
-      </c>
-      <c r="G128" t="s">
-        <v>29</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>33</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G129" t="s">
-        <v>160</v>
+        <v>17</v>
       </c>
       <c r="H129" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I129" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>165</v>
+      </c>
+      <c r="J129" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>12</v>
-      </c>
-      <c r="G130" t="s">
-        <v>27</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>31</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G131" t="s">
-        <v>160</v>
+        <v>17</v>
       </c>
       <c r="H131" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I131" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>165</v>
+      </c>
+      <c r="J131" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>12</v>
-      </c>
-      <c r="G132" t="s">
-        <v>27</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>31</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G133" t="s">
-        <v>160</v>
+        <v>17</v>
       </c>
       <c r="H133" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I133" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>165</v>
+      </c>
+      <c r="J133" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>12</v>
-      </c>
-      <c r="G134" t="s">
-        <v>27</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>31</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G135" t="s">
-        <v>160</v>
+        <v>17</v>
       </c>
       <c r="H135" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I135" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>165</v>
+      </c>
+      <c r="J135" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>12</v>
-      </c>
-      <c r="G136" t="s">
-        <v>27</v>
-      </c>
-      <c r="H136" t="s"/>
-      <c r="I136" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
+        <v>31</v>
+      </c>
+      <c r="I136" t="s"/>
+      <c r="J136" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G137" t="s">
-        <v>160</v>
+        <v>17</v>
       </c>
       <c r="H137" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I137" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>165</v>
+      </c>
+      <c r="J137" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>12</v>
-      </c>
-      <c r="G138" t="s">
-        <v>33</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>173</v>
+        <v>13</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>37</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
